--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1358.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1358.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174352388575501</v>
+        <v>1.064883708953857</v>
       </c>
       <c r="B1">
-        <v>2.598828333178683</v>
+        <v>2.654764175415039</v>
       </c>
       <c r="C1">
-        <v>3.970975928282718</v>
+        <v>8.938697814941406</v>
       </c>
       <c r="D1">
-        <v>2.737719751399627</v>
+        <v>2.052101612091064</v>
       </c>
       <c r="E1">
-        <v>1.152800472000211</v>
+        <v>1.162778973579407</v>
       </c>
     </row>
   </sheetData>
